--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H2">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N2">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>33.84731579237021</v>
+        <v>0.001505105418222222</v>
       </c>
       <c r="R2">
-        <v>304.625842131332</v>
+        <v>0.013545948764</v>
       </c>
       <c r="S2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="T2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>74.947</v>
       </c>
       <c r="I3">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J3">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N3">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1429.085965092889</v>
+        <v>0.3481621247777778</v>
       </c>
       <c r="R3">
-        <v>12861.773685836</v>
+        <v>3.133459123</v>
       </c>
       <c r="S3">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="T3">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H4">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I4">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J4">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N4">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>27.49619973594088</v>
+        <v>0.009740368157000001</v>
       </c>
       <c r="R4">
-        <v>247.465797623468</v>
+        <v>0.087663313413</v>
       </c>
       <c r="S4">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="T4">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
     </row>
   </sheetData>
